--- a/data/derived/matched_projects_Data3.xlsx
+++ b/data/derived/matched_projects_Data3.xlsx
@@ -8,25 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/territorios/Projects/2025_Intervencion_Cuidado_IDB/cuidado-rural/data/derived/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3D4A2516670D7AC5E06544368F7ACB52B527BFEC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA8961CF-AD3F-4885-9AC3-F7F222A54B10}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_3D4A2516670D7AC5E06544368F7ACB52B527BFEC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AE2A79D-0727-4183-8CAC-EFDA6EDC846D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="matched_all" sheetId="1" r:id="rId1"/>
-    <sheet name="matched_treated" sheetId="2" r:id="rId2"/>
-    <sheet name="matched_controls" sheetId="3" r:id="rId3"/>
-    <sheet name="pairs" sheetId="4" r:id="rId4"/>
+    <sheet name="cot" sheetId="5" r:id="rId1"/>
+    <sheet name="matched_all" sheetId="1" r:id="rId2"/>
+    <sheet name="matched_treated" sheetId="2" r:id="rId3"/>
+    <sheet name="matched_controls" sheetId="3" r:id="rId4"/>
+    <sheet name="pairs" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">matched_all!$A$1:$AJ$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cot!$A$1:$D$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">matched_all!$A$1:$AJ$51</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="129">
   <si>
     <t>no</t>
   </si>
@@ -408,6 +423,12 @@
   <si>
     <t>21</t>
   </si>
+  <si>
+    <t>aux</t>
+  </si>
+  <si>
+    <t>muestra</t>
+  </si>
 </sst>
 </file>
 
@@ -758,11 +779,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB021E5-D1D2-4EF6-98AD-3EDFCAD0D66A}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2:F51)</f>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>177</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>182</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32">
+        <v>211</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>185</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>43</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>211</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>220</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>223</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>225</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>264</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>48</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>273</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>293</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>311</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>321</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>329</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>330</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>335</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>343</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>350</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>110</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C43" sqref="C43:D43"/>
     </sheetView>
   </sheetViews>
@@ -6092,7 +7159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
@@ -8803,7 +9870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
@@ -11529,7 +12596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -12104,6 +13171,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EAB170F55A8EC74185BD611F05A04793" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d5a17d1a554d55876e000539a76a2c5d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="53729c01-e331-46af-8f84-09bea977ed00" xmlns:ns3="0b6a0b30-4523-4899-95a0-946babcdb6cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae57f88b4a3fd45965a526b4b96cee99" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12327,36 +13416,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D8B1F3B-E916-43D7-9C74-19B919808564}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14CD96A-93DB-4E4B-99B6-2CB50FB073CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7055CC32-12C8-423F-BECD-65D2C6AD2FE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7055CC32-12C8-423F-BECD-65D2C6AD2FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14CD96A-93DB-4E4B-99B6-2CB50FB073CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D8B1F3B-E916-43D7-9C74-19B919808564}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/derived/matched_projects_Data3.xlsx
+++ b/data/derived/matched_projects_Data3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/territorios/Projects/2025_Intervencion_Cuidado_IDB/cuidado-rural/data/derived/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_3D4A2516670D7AC5E06544368F7ACB52B527BFEC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AE2A79D-0727-4183-8CAC-EFDA6EDC846D}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_3D4A2516670D7AC5E06544368F7ACB52B527BFEC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE2C2CB-1BFC-A241-8FDA-CA33157A58B9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="26320" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cot" sheetId="5" r:id="rId1"/>
@@ -782,20 +782,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB021E5-D1D2-4EF6-98AD-3EDFCAD0D66A}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -839,7 +839,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -859,7 +859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
@@ -879,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -899,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15</v>
       </c>
@@ -919,7 +919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19</v>
       </c>
@@ -939,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>27</v>
       </c>
@@ -959,7 +959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>29</v>
       </c>
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30</v>
       </c>
@@ -999,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>35</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>38</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>46</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>64</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>66</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>73</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>81</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>82</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>107</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>109</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>126</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>127</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>129</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>137</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>143</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>144</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>146</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>151</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>170</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>177</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>182</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>185</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>191</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>193</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>200</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>202</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>211</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>220</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>223</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>225</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>264</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>273</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>293</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>311</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>321</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>329</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>330</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>335</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>343</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>350</v>
       </c>
@@ -1826,27 +1826,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:D43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.21875" customWidth="1"/>
+    <col min="2" max="2" width="58.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>27</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>29</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>35</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>38</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>46</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>64</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>66</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>73</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>81</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>82</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>107</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>109</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>126</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>127</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>129</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>137</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>143</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>144</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>146</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>151</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>170</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>177</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>182</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>185</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>191</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>193</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>200</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>202</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>211</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>220</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>223</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>225</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>264</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>273</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>293</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>311</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>321</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>329</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>330</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>335</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>343</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>350</v>
       </c>
@@ -7148,13 +7147,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ51" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="30">
-      <filters>
-        <filter val="Bajo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7165,9 +7157,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7277,7 +7269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -7384,7 +7376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>14</v>
       </c>
@@ -7485,7 +7477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -7589,7 +7581,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>27</v>
       </c>
@@ -7693,7 +7685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>35</v>
       </c>
@@ -7794,7 +7786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>46</v>
       </c>
@@ -7895,7 +7887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>76</v>
       </c>
@@ -7996,7 +7988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>81</v>
       </c>
@@ -8106,7 +8098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>107</v>
       </c>
@@ -8216,7 +8208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>109</v>
       </c>
@@ -8317,7 +8309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>127</v>
       </c>
@@ -8418,7 +8410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>144</v>
       </c>
@@ -8528,7 +8520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>151</v>
       </c>
@@ -8629,7 +8621,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>170</v>
       </c>
@@ -8730,7 +8722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>177</v>
       </c>
@@ -8831,7 +8823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>182</v>
       </c>
@@ -8941,7 +8933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>191</v>
       </c>
@@ -9042,7 +9034,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>193</v>
       </c>
@@ -9143,7 +9135,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>220</v>
       </c>
@@ -9244,7 +9236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>225</v>
       </c>
@@ -9345,7 +9337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>293</v>
       </c>
@@ -9452,7 +9444,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>311</v>
       </c>
@@ -9562,7 +9554,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>329</v>
       </c>
@@ -9663,7 +9655,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>335</v>
       </c>
@@ -9764,7 +9756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>350</v>
       </c>
@@ -9876,9 +9868,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9988,7 +9980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10089,7 +10081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -10190,7 +10182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
@@ -10294,7 +10286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>29</v>
       </c>
@@ -10404,7 +10396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>30</v>
       </c>
@@ -10514,7 +10506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>38</v>
       </c>
@@ -10615,7 +10607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64</v>
       </c>
@@ -10716,7 +10708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>66</v>
       </c>
@@ -10820,7 +10812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>73</v>
       </c>
@@ -10921,7 +10913,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>82</v>
       </c>
@@ -11022,7 +11014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>126</v>
       </c>
@@ -11123,7 +11115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>129</v>
       </c>
@@ -11224,7 +11216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>137</v>
       </c>
@@ -11325,7 +11317,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>143</v>
       </c>
@@ -11435,7 +11427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>146</v>
       </c>
@@ -11536,7 +11528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>185</v>
       </c>
@@ -11637,7 +11629,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>200</v>
       </c>
@@ -11738,7 +11730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>202</v>
       </c>
@@ -11839,7 +11831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>211</v>
       </c>
@@ -11949,7 +11941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>223</v>
       </c>
@@ -12050,7 +12042,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>264</v>
       </c>
@@ -12160,7 +12152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>273</v>
       </c>
@@ -12261,7 +12253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>321</v>
       </c>
@@ -12371,7 +12363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>330</v>
       </c>
@@ -12481,7 +12473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>343</v>
       </c>
@@ -12600,11 +12592,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B51" sqref="B1:B51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -12615,7 +12609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -12626,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -12637,7 +12631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -12648,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -12659,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -12670,7 +12664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -12681,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -12692,7 +12686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -12703,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -12714,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -12725,7 +12719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -12736,7 +12730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -12747,7 +12741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -12758,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -12769,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -12780,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -12791,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -12802,7 +12796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -12813,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -12824,7 +12818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -12835,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -12846,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -12857,7 +12851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -12868,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -12879,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -12890,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -12901,7 +12895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -12912,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -12923,7 +12917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -12934,7 +12928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -12945,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -12956,7 +12950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -12967,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -12978,7 +12972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -12989,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -13000,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -13011,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -13022,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -13033,7 +13027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -13044,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -13055,7 +13049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -13066,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -13077,7 +13071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -13088,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -13099,7 +13093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -13110,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -13121,7 +13115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -13132,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -13143,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>126</v>
       </c>
@@ -13154,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -13171,6 +13165,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
@@ -13181,15 +13184,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13417,21 +13411,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14CD96A-93DB-4E4B-99B6-2CB50FB073CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7055CC32-12C8-423F-BECD-65D2C6AD2FE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7055CC32-12C8-423F-BECD-65D2C6AD2FE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14CD96A-93DB-4E4B-99B6-2CB50FB073CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
